--- a/ddeprofit.xlsx
+++ b/ddeprofit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E27688-0B5D-4178-B4CE-309E42FFC8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F09E169-18C4-4925-91D9-34E1021FE694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dde profit" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="superficie_de_volatilidade_de_dolar" localSheetId="1">base_b3!$A$1:$L$51</definedName>
+    <definedName name="superficie_de_volatilidade_de_dolar" localSheetId="1">base_b3!$A$1:$L$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -184,10 +184,10 @@
     <t xml:space="preserve">                                                                                                                                                                                                           Download do arquivo </t>
   </si>
   <si>
-    <t xml:space="preserve">    Atualizado em: 03/10/2025 </t>
-  </si>
-  <si>
-    <t>Delta%</t>
+    <t>Delta %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Atualizado em: 08/10/2025 </t>
   </si>
   <si>
     <t xml:space="preserve">  * A superfície de volatilidade de dólar é construída com base nas informações coletadas por um pool de Informantes às 18h</t>
@@ -300,14 +300,14 @@
       <ddeItem name="DI1FUT.ABE" advise="1">
         <values>
           <value>
-            <val>13.5</val>
+            <val>13.56</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.FEC" advise="1">
         <values>
           <value>
-            <val>13.465000000000002</val>
+            <val>13.535000000000002</val>
           </value>
         </values>
       </ddeItem>
@@ -321,28 +321,28 @@
       <ddeItem name="DI1FUT.MIN" advise="1">
         <values>
           <value>
-            <val>13.49</val>
+            <val>13.475</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.NEG" advise="1">
         <values>
           <value>
-            <val>41347</val>
+            <val>30872</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.ULT" advise="1">
         <values>
           <value>
-            <val>13.51</val>
+            <val>13.475</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.VAR" advise="1">
         <values>
           <value>
-            <val>0.33419977720015481</val>
+            <val>-0.44329516069450392</val>
           </value>
         </values>
       </ddeItem>
@@ -356,56 +356,56 @@
       <ddeItem name="DI1FUT.VOL" advise="1">
         <values>
           <value>
-            <val>32194605757.099998</val>
+            <val>29007406084.700001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.ABE" advise="1">
         <values>
           <value>
-            <val>97.745896000000002</val>
+            <val>98.852716999999998</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.FEC" advise="1">
         <values>
           <value>
-            <val>97.745896000000002</val>
+            <val>98.850251</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.MAX" advise="1">
         <values>
           <value>
-            <val>98.064409999999995</val>
+            <val>99.101139000000003</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.MIN" advise="1">
         <values>
           <value>
-            <val>97.641043999999994</val>
+            <val>98.698318</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.NEG" advise="1">
         <values>
           <value>
-            <val>3856</val>
+            <val>7268</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.ULT" advise="1">
         <values>
           <value>
-            <val>97.992780999999994</val>
+            <val>98.93732</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.VAR" advise="1">
         <values>
           <value>
-            <val>0.25257837935211569</val>
+            <val>8.8081718679717369E-2</val>
           </value>
         </values>
       </ddeItem>
@@ -419,56 +419,56 @@
       <ddeItem name="DOLINDEX.VOL" advise="1">
         <values>
           <value>
-            <val>377327.496224</val>
+            <val>718381.65964900004</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.ABE" advise="1">
         <values>
           <value>
-            <val>37</val>
+            <val>30.4</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.FEC" advise="1">
         <values>
           <value>
-            <val>39.6</val>
+            <val>32</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.MAX" advise="1">
         <values>
           <value>
-            <val>37.5</val>
+            <val>30.8</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.MIN" advise="1">
         <values>
           <value>
-            <val>36.9</val>
+            <val>30.4</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.NEG" advise="1">
         <values>
           <value>
-            <val>125</val>
+            <val>162</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.ULT" advise="1">
         <values>
           <value>
-            <val>37.1</val>
+            <val>30.6</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.VAR" advise="1">
         <values>
           <value>
-            <val>-6.313131313131322</val>
+            <val>-4.375</val>
           </value>
         </values>
       </ddeItem>
@@ -482,56 +482,56 @@
       <ddeItem name="FRP0.VOL" advise="1">
         <values>
           <value>
-            <val>7036587825</val>
+            <val>11250241725</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.ABE" advise="1">
         <values>
           <value>
-            <val>3889</val>
+            <val>4010</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.FEC" advise="1">
         <values>
           <value>
-            <val>3881.5</val>
+            <val>4012.25</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.MAX" advise="1">
         <values>
           <value>
-            <val>3922.75</val>
+            <val>4089.25</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.MIN" advise="1">
         <values>
           <value>
-            <val>3887.25</val>
+            <val>4010</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.NEG" advise="1">
         <values>
           <value>
-            <val>269</val>
+            <val>516</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.ULT" advise="1">
         <values>
           <value>
-            <val>3917</val>
+            <val>4070</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.VAR" advise="1">
         <values>
           <value>
-            <val>0.9145948731160729</val>
+            <val>1.4393420150788216</val>
           </value>
         </values>
       </ddeItem>
@@ -545,7 +545,7 @@
       <ddeItem name="GLDFUT.VOL" advise="1">
         <values>
           <value>
-            <val>6478637.7400000002</val>
+            <val>22295430.699999999</val>
           </value>
         </values>
       </ddeItem>
@@ -553,49 +553,49 @@
       <ddeItem name="USD/BRL.ABE" advise="1">
         <values>
           <value>
-            <val>5.3368000000000002</val>
+            <val>5.3348000000000004</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.FEC" advise="1">
         <values>
           <value>
-            <val>5.3368000000000002</val>
+            <val>5.3348000000000004</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.MAX" advise="1">
         <values>
           <value>
-            <val>5.3384070000000001</val>
+            <val>5.3569000000000004</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.MIN" advise="1">
         <values>
           <value>
-            <val>5.3368000000000002</val>
+            <val>5.3328069999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.NEG" advise="1">
         <values>
           <value>
-            <val>3</val>
+            <val>480</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.ULT" advise="1">
         <values>
           <value>
-            <val>5.3384070000000001</val>
+            <val>5.3532999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.VAR" advise="1">
         <values>
           <value>
-            <val>3.011167740967835E-2</val>
+            <val>0.34677963560018554</val>
           </value>
         </values>
       </ddeItem>
@@ -609,49 +609,49 @@
       <ddeItem name="USD/BRL.VOL" advise="1">
         <values>
           <value>
-            <val>16.012007000000001</val>
+            <val>2562.4817109999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.ABE" advise="1">
         <values>
           <value>
-            <val>5370</val>
+            <val>5388</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.MAX" advise="1">
         <values>
           <value>
-            <val>5399</val>
+            <val>5395</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.MIN" advise="1">
         <values>
           <value>
-            <val>5361.5</val>
+            <val>5360</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.NEG" advise="1">
         <values>
           <value>
-            <val>641795</val>
+            <val>608857</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.ULT" advise="1">
         <values>
           <value>
-            <val>5378</val>
+            <val>5364</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.VAR" advise="1">
         <values>
           <value>
-            <val>-1.8590816136835997E-2</val>
+            <val>-0.44543429844098625</val>
           </value>
         </values>
       </ddeItem>
@@ -665,7 +665,7 @@
       <ddeItem name="WDOFUT.VOL" advise="1">
         <values>
           <value>
-            <val>142173145050</val>
+            <val>135472110715</val>
           </value>
         </values>
       </ddeItem>
@@ -977,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="J1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,11 +1027,11 @@
       </c>
       <c r="K2" cm="1">
         <f t="array" ref="K2">[1]!DI1FUT.ULT</f>
-        <v>13.51</v>
+        <v>13.475</v>
       </c>
       <c r="L2" cm="1">
         <f t="array" ref="L2">[1]!DI1FUT.ABE</f>
-        <v>13.5</v>
+        <v>13.56</v>
       </c>
       <c r="M2" cm="1">
         <f t="array" ref="M2">[1]!DI1FUT.MAX</f>
@@ -1039,23 +1039,23 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2">[1]!DI1FUT.MIN</f>
-        <v>13.49</v>
+        <v>13.475</v>
       </c>
       <c r="O2" cm="1">
         <f t="array" ref="O2">[1]!DI1FUT.FEC</f>
-        <v>13.465000000000002</v>
+        <v>13.535000000000002</v>
       </c>
       <c r="P2" cm="1">
         <f t="array" ref="P2">[1]!DI1FUT.VAR</f>
-        <v>0.33419977720015481</v>
+        <v>-0.44329516069450392</v>
       </c>
       <c r="Q2" cm="1">
         <f t="array" ref="Q2">[1]!DI1FUT.NEG</f>
-        <v>41347</v>
+        <v>30872</v>
       </c>
       <c r="R2" cm="1">
         <f t="array" ref="R2">[1]!DI1FUT.VOL</f>
-        <v>32194605757.099998</v>
+        <v>29007406084.700001</v>
       </c>
       <c r="S2" t="str" cm="1">
         <f t="array" ref="S2">[1]!DI1FUT.VEN</f>
@@ -1068,35 +1068,35 @@
       </c>
       <c r="K3" cm="1">
         <f t="array" ref="K3">[1]!FRP0.ULT</f>
-        <v>37.1</v>
+        <v>30.6</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" ref="L3">[1]!FRP0.ABE</f>
-        <v>37</v>
+        <v>30.4</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" ref="M3">[1]!FRP0.MAX</f>
-        <v>37.5</v>
+        <v>30.8</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3">[1]!FRP0.MIN</f>
-        <v>36.9</v>
+        <v>30.4</v>
       </c>
       <c r="O3" cm="1">
         <f t="array" ref="O3">[1]!FRP0.FEC</f>
-        <v>39.6</v>
+        <v>32</v>
       </c>
       <c r="P3" cm="1">
         <f t="array" ref="P3">[1]!FRP0.VAR</f>
-        <v>-6.313131313131322</v>
+        <v>-4.375</v>
       </c>
       <c r="Q3" cm="1">
         <f t="array" ref="Q3">[1]!FRP0.NEG</f>
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="R3" cm="1">
         <f t="array" ref="R3">[1]!FRP0.VOL</f>
-        <v>7036587825</v>
+        <v>11250241725</v>
       </c>
       <c r="S3" t="str" cm="1">
         <f t="array" ref="S3">[1]!FRP0.VEN</f>
@@ -1109,35 +1109,35 @@
       </c>
       <c r="K4" cm="1">
         <f t="array" ref="K4">[1]!'USD/BRL.ULT'</f>
-        <v>5.3384070000000001</v>
+        <v>5.3532999999999999</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" ref="L4">[1]!'USD/BRL.ABE'</f>
-        <v>5.3368000000000002</v>
+        <v>5.3348000000000004</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" ref="M4">[1]!'USD/BRL.MAX'</f>
-        <v>5.3384070000000001</v>
+        <v>5.3569000000000004</v>
       </c>
       <c r="N4" cm="1">
         <f t="array" ref="N4">[1]!'USD/BRL.MIN'</f>
-        <v>5.3368000000000002</v>
+        <v>5.3328069999999999</v>
       </c>
       <c r="O4" cm="1">
         <f t="array" ref="O4">[1]!'USD/BRL.FEC'</f>
-        <v>5.3368000000000002</v>
+        <v>5.3348000000000004</v>
       </c>
       <c r="P4" cm="1">
         <f t="array" ref="P4">[1]!'USD/BRL.VAR'</f>
-        <v>3.011167740967835E-2</v>
+        <v>0.34677963560018554</v>
       </c>
       <c r="Q4" cm="1">
         <f t="array" ref="Q4">[1]!'USD/BRL.NEG'</f>
-        <v>3</v>
+        <v>480</v>
       </c>
       <c r="R4" cm="1">
         <f t="array" ref="R4">[1]!'USD/BRL.VOL'</f>
-        <v>16.012007000000001</v>
+        <v>2562.4817109999999</v>
       </c>
       <c r="S4" t="str" cm="1">
         <f t="array" ref="S4">[1]!'USD/BRL.VEN'</f>
@@ -1150,34 +1150,34 @@
       </c>
       <c r="K5" cm="1">
         <f t="array" ref="K5">[1]!WDOFUT.ULT</f>
-        <v>5378</v>
+        <v>5364</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" ref="L5">[1]!WDOFUT.ABE</f>
-        <v>5370</v>
+        <v>5388</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" ref="M5">[1]!WDOFUT.MAX</f>
-        <v>5399</v>
+        <v>5395</v>
       </c>
       <c r="N5" cm="1">
         <f t="array" ref="N5">[1]!WDOFUT.MIN</f>
-        <v>5361.5</v>
+        <v>5360</v>
       </c>
       <c r="O5">
-        <v>5378</v>
+        <v>5364</v>
       </c>
       <c r="P5" cm="1">
         <f t="array" ref="P5">[1]!WDOFUT.VAR</f>
-        <v>-1.8590816136835997E-2</v>
+        <v>-0.44543429844098625</v>
       </c>
       <c r="Q5" cm="1">
         <f t="array" ref="Q5">[1]!WDOFUT.NEG</f>
-        <v>641795</v>
+        <v>608857</v>
       </c>
       <c r="R5" cm="1">
         <f t="array" ref="R5">[1]!WDOFUT.VOL</f>
-        <v>142173145050</v>
+        <v>135472110715</v>
       </c>
       <c r="S5" t="str" cm="1">
         <f t="array" ref="S5">[1]!WDOFUT.VEN</f>
@@ -1190,35 +1190,35 @@
       </c>
       <c r="K6" cm="1">
         <f t="array" ref="K6">[1]!DOLINDEX.ULT</f>
-        <v>97.992780999999994</v>
+        <v>98.93732</v>
       </c>
       <c r="L6" cm="1">
         <f t="array" ref="L6">[1]!DOLINDEX.ABE</f>
-        <v>97.745896000000002</v>
+        <v>98.852716999999998</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" ref="M6">[1]!DOLINDEX.MAX</f>
-        <v>98.064409999999995</v>
+        <v>99.101139000000003</v>
       </c>
       <c r="N6" cm="1">
         <f t="array" ref="N6">[1]!DOLINDEX.MIN</f>
-        <v>97.641043999999994</v>
+        <v>98.698318</v>
       </c>
       <c r="O6" cm="1">
         <f t="array" ref="O6">[1]!DOLINDEX.FEC</f>
-        <v>97.745896000000002</v>
+        <v>98.850251</v>
       </c>
       <c r="P6" cm="1">
         <f t="array" ref="P6">[1]!DOLINDEX.VAR</f>
-        <v>0.25257837935211569</v>
+        <v>8.8081718679717369E-2</v>
       </c>
       <c r="Q6" cm="1">
         <f t="array" ref="Q6">[1]!DOLINDEX.NEG</f>
-        <v>3856</v>
+        <v>7268</v>
       </c>
       <c r="R6" cm="1">
         <f t="array" ref="R6">[1]!DOLINDEX.VOL</f>
-        <v>377327.496224</v>
+        <v>718381.65964900004</v>
       </c>
       <c r="S6" t="str" cm="1">
         <f t="array" ref="S6">[1]!DOLINDEX.VEN</f>
@@ -1231,35 +1231,35 @@
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">[1]!GLDFUT.ULT</f>
-        <v>3917</v>
+        <v>4070</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">[1]!GLDFUT.ABE</f>
-        <v>3889</v>
+        <v>4010</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" ref="M7">[1]!GLDFUT.MAX</f>
-        <v>3922.75</v>
+        <v>4089.25</v>
       </c>
       <c r="N7" cm="1">
         <f t="array" ref="N7">[1]!GLDFUT.MIN</f>
-        <v>3887.25</v>
+        <v>4010</v>
       </c>
       <c r="O7" cm="1">
         <f t="array" ref="O7">[1]!GLDFUT.FEC</f>
-        <v>3881.5</v>
+        <v>4012.25</v>
       </c>
       <c r="P7" cm="1">
         <f t="array" ref="P7">[1]!GLDFUT.VAR</f>
-        <v>0.9145948731160729</v>
+        <v>1.4393420150788216</v>
       </c>
       <c r="Q7" cm="1">
         <f t="array" ref="Q7">[1]!GLDFUT.NEG</f>
-        <v>269</v>
+        <v>516</v>
       </c>
       <c r="R7" cm="1">
         <f t="array" ref="R7">[1]!GLDFUT.VOL</f>
-        <v>6478637.7400000002</v>
+        <v>22295430.699999999</v>
       </c>
       <c r="S7" t="str" cm="1">
         <f t="array" ref="S7">[1]!GLDFUT.VEN</f>
@@ -1274,15 +1274,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha10"/>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="5" customWidth="1"/>
     <col min="2" max="12" width="9.140625" style="5" customWidth="1"/>
     <col min="13" max="16384" width="10.28515625" style="5"/>
   </cols>
@@ -1367,12 +1367,12 @@
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -1413,37 +1413,37 @@
         <v>45962</v>
       </c>
       <c r="B19" s="4">
-        <v>17.79</v>
+        <v>17.59</v>
       </c>
       <c r="C19" s="4">
-        <v>16.23</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="D19" s="4">
-        <v>14.67</v>
+        <v>14.52</v>
       </c>
       <c r="E19" s="4">
-        <v>11.95</v>
+        <v>11.82</v>
       </c>
       <c r="F19" s="4">
-        <v>10.79</v>
+        <v>10.67</v>
       </c>
       <c r="G19" s="4">
-        <v>9.9700000000000006</v>
+        <v>9.85</v>
       </c>
       <c r="H19" s="4">
-        <v>9.5500000000000007</v>
+        <v>9.44</v>
       </c>
       <c r="I19" s="4">
-        <v>9.09</v>
+        <v>8.98</v>
       </c>
       <c r="J19" s="4">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="K19" s="4">
         <v>9.39</v>
       </c>
-      <c r="K19" s="4">
-        <v>9.49</v>
-      </c>
       <c r="L19" s="4">
-        <v>9.58</v>
+        <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1451,37 +1451,37 @@
         <v>45992</v>
       </c>
       <c r="B20" s="4">
-        <v>16.52</v>
+        <v>15.87</v>
       </c>
       <c r="C20" s="4">
-        <v>16.18</v>
+        <v>15.29</v>
       </c>
       <c r="D20" s="4">
-        <v>15.66</v>
+        <v>14.6</v>
       </c>
       <c r="E20" s="4">
-        <v>13.17</v>
+        <v>12.8</v>
       </c>
       <c r="F20" s="4">
-        <v>11.66</v>
+        <v>11.64</v>
       </c>
       <c r="G20" s="4">
-        <v>10.82</v>
+        <v>10.66</v>
       </c>
       <c r="H20" s="4">
-        <v>10.18</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="I20" s="4">
-        <v>9.83</v>
+        <v>9.58</v>
       </c>
       <c r="J20" s="4">
-        <v>10.24</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="K20" s="4">
-        <v>10.15</v>
+        <v>9.49</v>
       </c>
       <c r="L20" s="4">
-        <v>9.99</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1489,37 +1489,37 @@
         <v>46023</v>
       </c>
       <c r="B21" s="4">
-        <v>17.420000000000002</v>
+        <v>17.21</v>
       </c>
       <c r="C21" s="4">
-        <v>16.95</v>
+        <v>16.77</v>
       </c>
       <c r="D21" s="4">
-        <v>16.29</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="E21" s="4">
-        <v>13.73</v>
+        <v>13.59</v>
       </c>
       <c r="F21" s="4">
-        <v>12.15</v>
+        <v>12.26</v>
       </c>
       <c r="G21" s="4">
-        <v>11.29</v>
+        <v>11.16</v>
       </c>
       <c r="H21" s="4">
-        <v>10.63</v>
+        <v>10.51</v>
       </c>
       <c r="I21" s="4">
-        <v>10.34</v>
+        <v>10.36</v>
       </c>
       <c r="J21" s="4">
-        <v>10.81</v>
+        <v>10.69</v>
       </c>
       <c r="K21" s="4">
-        <v>10.8</v>
+        <v>10.66</v>
       </c>
       <c r="L21" s="4">
-        <v>10.78</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1527,37 +1527,37 @@
         <v>46054</v>
       </c>
       <c r="B22" s="4">
-        <v>18.07</v>
+        <v>17.68</v>
       </c>
       <c r="C22" s="4">
-        <v>17.54</v>
+        <v>17.21</v>
       </c>
       <c r="D22" s="4">
-        <v>16.82</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="E22" s="4">
-        <v>14.23</v>
+        <v>13.95</v>
       </c>
       <c r="F22" s="4">
-        <v>12.64</v>
+        <v>12.38</v>
       </c>
       <c r="G22" s="4">
-        <v>11.78</v>
+        <v>11.53</v>
       </c>
       <c r="H22" s="4">
+        <v>10.86</v>
+      </c>
+      <c r="I22" s="4">
+        <v>10.71</v>
+      </c>
+      <c r="J22" s="4">
+        <v>11.11</v>
+      </c>
+      <c r="K22" s="4">
         <v>11.1</v>
       </c>
-      <c r="I22" s="4">
-        <v>10.86</v>
-      </c>
-      <c r="J22" s="4">
-        <v>11.37</v>
-      </c>
-      <c r="K22" s="4">
-        <v>11.43</v>
-      </c>
       <c r="L22" s="4">
-        <v>11.47</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1565,37 +1565,37 @@
         <v>46082</v>
       </c>
       <c r="B23" s="4">
-        <v>18.5</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="C23" s="4">
-        <v>17.989999999999998</v>
+        <v>17.62</v>
       </c>
       <c r="D23" s="4">
-        <v>17.3</v>
+        <v>16.98</v>
       </c>
       <c r="E23" s="4">
-        <v>14.72</v>
+        <v>14.39</v>
       </c>
       <c r="F23" s="4">
-        <v>13.15</v>
+        <v>12.83</v>
       </c>
       <c r="G23" s="4">
-        <v>12.29</v>
+        <v>11.99</v>
       </c>
       <c r="H23" s="4">
-        <v>11.63</v>
+        <v>11.32</v>
       </c>
       <c r="I23" s="4">
-        <v>11.39</v>
+        <v>11.16</v>
       </c>
       <c r="J23" s="4">
-        <v>11.92</v>
+        <v>11.59</v>
       </c>
       <c r="K23" s="4">
-        <v>11.96</v>
+        <v>11.58</v>
       </c>
       <c r="L23" s="4">
-        <v>11.98</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1603,37 +1603,37 @@
         <v>46113</v>
       </c>
       <c r="B24" s="4">
-        <v>18.7</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C24" s="4">
-        <v>18.27</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="D24" s="4">
-        <v>17.649999999999999</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E24" s="4">
-        <v>15.07</v>
+        <v>14.81</v>
       </c>
       <c r="F24" s="4">
-        <v>13.54</v>
+        <v>13.29</v>
       </c>
       <c r="G24" s="4">
-        <v>12.67</v>
+        <v>12.46</v>
       </c>
       <c r="H24" s="4">
-        <v>12.04</v>
+        <v>11.8</v>
       </c>
       <c r="I24" s="4">
-        <v>11.78</v>
+        <v>11.52</v>
       </c>
       <c r="J24" s="4">
-        <v>12.32</v>
+        <v>12.07</v>
       </c>
       <c r="K24" s="4">
-        <v>12.3</v>
+        <v>12.03</v>
       </c>
       <c r="L24" s="4">
-        <v>12.27</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1641,37 +1641,37 @@
         <v>46143</v>
       </c>
       <c r="B25" s="4">
-        <v>19.03</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="C25" s="4">
-        <v>18.61</v>
+        <v>18.41</v>
       </c>
       <c r="D25" s="4">
-        <v>18</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="E25" s="4">
-        <v>15.24</v>
+        <v>15.05</v>
       </c>
       <c r="F25" s="4">
-        <v>14.14</v>
+        <v>13.73</v>
       </c>
       <c r="G25" s="4">
-        <v>13.1</v>
+        <v>12.91</v>
       </c>
       <c r="H25" s="4">
-        <v>12.59</v>
+        <v>12.39</v>
       </c>
       <c r="I25" s="4">
-        <v>12.17</v>
+        <v>11.97</v>
       </c>
       <c r="J25" s="4">
-        <v>12.69</v>
+        <v>12.49</v>
       </c>
       <c r="K25" s="4">
-        <v>12.66</v>
+        <v>12.45</v>
       </c>
       <c r="L25" s="4">
-        <v>12.61</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1679,37 +1679,37 @@
         <v>46174</v>
       </c>
       <c r="B26" s="4">
-        <v>18.89</v>
+        <v>18.73</v>
       </c>
       <c r="C26" s="4">
-        <v>18.27</v>
+        <v>18.11</v>
       </c>
       <c r="D26" s="4">
-        <v>17.54</v>
+        <v>17.37</v>
       </c>
       <c r="E26" s="4">
-        <v>15.65</v>
+        <v>15.49</v>
       </c>
       <c r="F26" s="4">
-        <v>14.45</v>
+        <v>14.29</v>
       </c>
       <c r="G26" s="4">
-        <v>13.46</v>
+        <v>13.3</v>
       </c>
       <c r="H26" s="4">
-        <v>12.8</v>
+        <v>12.64</v>
       </c>
       <c r="I26" s="4">
-        <v>12.48</v>
+        <v>12.32</v>
       </c>
       <c r="J26" s="4">
-        <v>12.47</v>
+        <v>12.31</v>
       </c>
       <c r="K26" s="4">
-        <v>12.54</v>
+        <v>12.39</v>
       </c>
       <c r="L26" s="4">
-        <v>12.67</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1717,37 +1717,37 @@
         <v>46204</v>
       </c>
       <c r="B27" s="4">
-        <v>19.64</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="C27" s="4">
-        <v>19.22</v>
+        <v>19.190000000000001</v>
       </c>
       <c r="D27" s="4">
-        <v>18.600000000000001</v>
+        <v>18.54</v>
       </c>
       <c r="E27" s="4">
-        <v>15.99</v>
+        <v>15.93</v>
       </c>
       <c r="F27" s="4">
-        <v>14.67</v>
+        <v>14.59</v>
       </c>
       <c r="G27" s="4">
-        <v>13.59</v>
+        <v>13.52</v>
       </c>
       <c r="H27" s="4">
-        <v>12.97</v>
+        <v>12.89</v>
       </c>
       <c r="I27" s="4">
-        <v>12.72</v>
+        <v>12.66</v>
       </c>
       <c r="J27" s="4">
-        <v>13.31</v>
+        <v>13.24</v>
       </c>
       <c r="K27" s="4">
-        <v>13.28</v>
+        <v>13.25</v>
       </c>
       <c r="L27" s="4">
-        <v>13.24</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1755,37 +1755,37 @@
         <v>46235</v>
       </c>
       <c r="B28" s="4">
-        <v>20.05</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="C28" s="4">
-        <v>19.61</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D28" s="4">
-        <v>18.98</v>
+        <v>18.95</v>
       </c>
       <c r="E28" s="4">
-        <v>16.38</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="F28" s="4">
-        <v>15.05</v>
+        <v>15.02</v>
       </c>
       <c r="G28" s="4">
-        <v>13.98</v>
+        <v>13.97</v>
       </c>
       <c r="H28" s="4">
-        <v>13.36</v>
+        <v>13.33</v>
       </c>
       <c r="I28" s="4">
-        <v>13.12</v>
+        <v>13.09</v>
       </c>
       <c r="J28" s="4">
-        <v>13.7</v>
+        <v>13.67</v>
       </c>
       <c r="K28" s="4">
-        <v>13.69</v>
+        <v>13.67</v>
       </c>
       <c r="L28" s="4">
-        <v>13.66</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1793,37 +1793,37 @@
         <v>46266</v>
       </c>
       <c r="B29" s="4">
-        <v>19.7</v>
+        <v>19.71</v>
       </c>
       <c r="C29" s="4">
-        <v>19.059999999999999</v>
+        <v>19.05</v>
       </c>
       <c r="D29" s="4">
-        <v>18.309999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="E29" s="4">
-        <v>16.37</v>
+        <v>16.38</v>
       </c>
       <c r="F29" s="4">
-        <v>15</v>
+        <v>15.16</v>
       </c>
       <c r="G29" s="4">
-        <v>14.15</v>
+        <v>14.17</v>
       </c>
       <c r="H29" s="4">
-        <v>13.5</v>
+        <v>13.52</v>
       </c>
       <c r="I29" s="4">
-        <v>13.21</v>
+        <v>13.23</v>
       </c>
       <c r="J29" s="4">
-        <v>13.26</v>
+        <v>13.32</v>
       </c>
       <c r="K29" s="4">
-        <v>13.36</v>
+        <v>13.41</v>
       </c>
       <c r="L29" s="4">
-        <v>13.51</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1831,37 +1831,37 @@
         <v>46296</v>
       </c>
       <c r="B30" s="4">
-        <v>19.82</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="C30" s="4">
-        <v>19.190000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="D30" s="4">
-        <v>18.440000000000001</v>
+        <v>18.45</v>
       </c>
       <c r="E30" s="4">
-        <v>16.510000000000002</v>
+        <v>16.52</v>
       </c>
       <c r="F30" s="4">
-        <v>15.29</v>
+        <v>15.31</v>
       </c>
       <c r="G30" s="4">
-        <v>14.31</v>
+        <v>14.32</v>
       </c>
       <c r="H30" s="4">
-        <v>13.67</v>
+        <v>13.68</v>
       </c>
       <c r="I30" s="4">
-        <v>13.38</v>
+        <v>13.4</v>
       </c>
       <c r="J30" s="4">
-        <v>13.44</v>
+        <v>13.46</v>
       </c>
       <c r="K30" s="4">
-        <v>13.55</v>
+        <v>13.57</v>
       </c>
       <c r="L30" s="4">
-        <v>13.7</v>
+        <v>13.71</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1907,37 +1907,37 @@
         <v>46388</v>
       </c>
       <c r="B32" s="4">
-        <v>20.98</v>
+        <v>21.04</v>
       </c>
       <c r="C32" s="4">
-        <v>20.54</v>
+        <v>20.61</v>
       </c>
       <c r="D32" s="4">
-        <v>19.91</v>
+        <v>19.97</v>
       </c>
       <c r="E32" s="4">
-        <v>17.27</v>
+        <v>17.34</v>
       </c>
       <c r="F32" s="4">
-        <v>15.94</v>
+        <v>16.02</v>
       </c>
       <c r="G32" s="4">
-        <v>14.88</v>
+        <v>14.95</v>
       </c>
       <c r="H32" s="4">
-        <v>14.28</v>
+        <v>14.35</v>
       </c>
       <c r="I32" s="4">
-        <v>14.06</v>
+        <v>14.14</v>
       </c>
       <c r="J32" s="4">
-        <v>14.7</v>
+        <v>14.77</v>
       </c>
       <c r="K32" s="4">
-        <v>14.7</v>
+        <v>14.77</v>
       </c>
       <c r="L32" s="4">
-        <v>14.69</v>
+        <v>14.76</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1983,37 +1983,37 @@
         <v>46569</v>
       </c>
       <c r="B34" s="4">
-        <v>21.91</v>
+        <v>21.94</v>
       </c>
       <c r="C34" s="4">
-        <v>21.39</v>
+        <v>21.42</v>
       </c>
       <c r="D34" s="4">
-        <v>20.68</v>
+        <v>20.7</v>
       </c>
       <c r="E34" s="4">
-        <v>17.97</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="F34" s="4">
-        <v>16.579999999999998</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G34" s="4">
-        <v>15.51</v>
+        <v>15.53</v>
       </c>
       <c r="H34" s="4">
-        <v>14.91</v>
+        <v>14.93</v>
       </c>
       <c r="I34" s="4">
-        <v>14.75</v>
+        <v>14.78</v>
       </c>
       <c r="J34" s="4">
-        <v>15.47</v>
+        <v>15.5</v>
       </c>
       <c r="K34" s="4">
-        <v>15.56</v>
+        <v>15.59</v>
       </c>
       <c r="L34" s="4">
-        <v>15.6</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2021,37 +2021,37 @@
         <v>46600</v>
       </c>
       <c r="B35" s="1">
-        <v>21.86</v>
+        <v>21.88</v>
       </c>
       <c r="C35" s="1">
-        <v>21.28</v>
+        <v>21.3</v>
       </c>
       <c r="D35" s="1">
-        <v>20.52</v>
+        <v>20.54</v>
       </c>
       <c r="E35" s="1">
-        <v>18.05</v>
+        <v>18.07</v>
       </c>
       <c r="F35" s="1">
-        <v>16.7</v>
+        <v>16.72</v>
       </c>
       <c r="G35" s="1">
-        <v>15.66</v>
+        <v>15.68</v>
       </c>
       <c r="H35" s="1">
-        <v>15.06</v>
+        <v>15.07</v>
       </c>
       <c r="I35" s="1">
-        <v>14.88</v>
+        <v>14.9</v>
       </c>
       <c r="J35" s="1">
-        <v>15.41</v>
+        <v>15.43</v>
       </c>
       <c r="K35" s="1">
-        <v>15.55</v>
+        <v>15.57</v>
       </c>
       <c r="L35" s="1">
-        <v>15.65</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2097,37 +2097,37 @@
         <v>46753</v>
       </c>
       <c r="B37" s="1">
-        <v>22.08</v>
+        <v>22.07</v>
       </c>
       <c r="C37" s="1">
-        <v>21.33</v>
+        <v>21.32</v>
       </c>
       <c r="D37" s="1">
-        <v>20.46</v>
+        <v>20.45</v>
       </c>
       <c r="E37" s="1">
-        <v>18.239999999999998</v>
+        <v>18.23</v>
       </c>
       <c r="F37" s="1">
-        <v>16.88</v>
+        <v>16.87</v>
       </c>
       <c r="G37" s="1">
-        <v>15.84</v>
+        <v>15.83</v>
       </c>
       <c r="H37" s="1">
-        <v>15.23</v>
+        <v>15.22</v>
       </c>
       <c r="I37" s="1">
-        <v>15.07</v>
+        <v>15.06</v>
       </c>
       <c r="J37" s="1">
-        <v>15.39</v>
+        <v>15.38</v>
       </c>
       <c r="K37" s="1">
-        <v>15.62</v>
+        <v>15.61</v>
       </c>
       <c r="L37" s="1">
-        <v>15.87</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2135,37 +2135,37 @@
         <v>46935</v>
       </c>
       <c r="B38" s="1">
-        <v>22.37</v>
+        <v>22.36</v>
       </c>
       <c r="C38" s="1">
-        <v>21.6</v>
+        <v>21.59</v>
       </c>
       <c r="D38" s="1">
-        <v>20.7</v>
+        <v>20.69</v>
       </c>
       <c r="E38" s="1">
         <v>18.399999999999999</v>
       </c>
       <c r="F38" s="1">
-        <v>17</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="G38" s="1">
-        <v>15.92</v>
+        <v>15.91</v>
       </c>
       <c r="H38" s="1">
-        <v>15.29</v>
+        <v>15.28</v>
       </c>
       <c r="I38" s="1">
         <v>15.11</v>
       </c>
       <c r="J38" s="1">
-        <v>15.44</v>
+        <v>15.43</v>
       </c>
       <c r="K38" s="1">
-        <v>15.67</v>
+        <v>15.66</v>
       </c>
       <c r="L38" s="1">
-        <v>15.92</v>
+        <v>15.91</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2173,13 +2173,13 @@
         <v>47119</v>
       </c>
       <c r="B39" s="1">
-        <v>22.5</v>
+        <v>22.49</v>
       </c>
       <c r="C39" s="1">
-        <v>21.72</v>
+        <v>21.71</v>
       </c>
       <c r="D39" s="1">
-        <v>20.81</v>
+        <v>20.8</v>
       </c>
       <c r="E39" s="1">
         <v>18.48</v>
@@ -2249,7 +2249,7 @@
         <v>10959</v>
       </c>
       <c r="B41" s="1">
-        <v>22.92</v>
+        <v>22.91</v>
       </c>
       <c r="C41" s="1">
         <v>22.12</v>
@@ -2258,10 +2258,10 @@
         <v>21.2</v>
       </c>
       <c r="E41" s="1">
-        <v>18.850000000000001</v>
+        <v>18.84</v>
       </c>
       <c r="F41" s="1">
-        <v>17.420000000000002</v>
+        <v>17.41</v>
       </c>
       <c r="G41" s="1">
         <v>16.32</v>
@@ -2389,9 +2389,7 @@
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2405,9 +2403,7 @@
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2421,9 +2417,7 @@
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2436,6 +2430,68 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
